--- a/medicine/Enfance/Festival_du_film_de_Giffoni/Festival_du_film_de_Giffoni.xlsx
+++ b/medicine/Enfance/Festival_du_film_de_Giffoni/Festival_du_film_de_Giffoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Festival du film de Giffoni (Giffoni Film Festival, GFF) est un festival italien consacré au cinéma pour la jeunesse, qui se tient à Giffoni Valle Piana (Campanie).
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Festival du film de Giffoni a été fondé en 1970 par Claudio Gubitosi, alors âgé de dix-huit ans, qui en est toujours le directeur artistique.
 </t>
@@ -543,7 +557,9 @@
           <t>Griffon d'or</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1971 : Good bye, M. Chips (Goodbye, Mr. Chips), d'Herbert Ross
 1972 : Batman, de Leslie H. Martinson
